--- a/src/test/testFiles/Lockers4.xlsx
+++ b/src/test/testFiles/Lockers4.xlsx
@@ -5,34 +5,31 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Allen" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Armes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Machray" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooonglockkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeerrrrrrrrrr" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
+  <si>
+    <t>FULL</t>
+  </si>
   <si>
     <t>Armes</t>
-  </si>
-  <si>
-    <t>FULL</t>
   </si>
   <si>
     <t>HALF</t>
   </si>
   <si>
-    <t>Machray Hall</t>
-  </si>
-  <si>
     <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooonglockkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeerrrrrrrrrr</t>
-  </si>
-  <si>
-    <t>Allen</t>
   </si>
 </sst>
 </file>
@@ -129,10 +126,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:C24"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C12" activeCellId="0" pane="topLeft" sqref="C12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -140,42 +137,110 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:C10"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
@@ -186,134 +251,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -325,4 +280,106 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>